--- a/Docs/Sprint 4 Backlog React.xlsx
+++ b/Docs/Sprint 4 Backlog React.xlsx
@@ -440,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -545,6 +545,9 @@
       <c r="B7" t="s">
         <v>24</v>
       </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
@@ -556,6 +559,9 @@
       <c r="B8" t="s">
         <v>25</v>
       </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
@@ -595,6 +601,9 @@
       <c r="B11" t="s">
         <v>23</v>
       </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
@@ -611,6 +620,12 @@
       </c>
       <c r="D12" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13">
+        <f>SUM(C2:C12)</f>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
